--- a/faili/kontrolpunktu tabula.xlsx
+++ b/faili/kontrolpunktu tabula.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
   <si>
     <t>N*N</t>
   </si>
@@ -65,84 +65,30 @@
     <t>1,6km</t>
   </si>
   <si>
-    <t>550m</t>
-  </si>
-  <si>
     <t>9,2km</t>
   </si>
   <si>
-    <t>6,7km</t>
-  </si>
-  <si>
-    <t>350m</t>
-  </si>
-  <si>
     <t>2,2km</t>
   </si>
   <si>
-    <t>1,8km</t>
-  </si>
-  <si>
-    <t>1,5km</t>
-  </si>
-  <si>
     <t>6,8km</t>
   </si>
   <si>
     <t>12,8km</t>
   </si>
   <si>
-    <t>1,3km</t>
-  </si>
-  <si>
-    <t>6,3km</t>
-  </si>
-  <si>
-    <t>12,5km</t>
-  </si>
-  <si>
-    <t>7,9km</t>
-  </si>
-  <si>
-    <t>10,3km</t>
-  </si>
-  <si>
     <t>7,6km</t>
   </si>
   <si>
-    <t>2,3km</t>
-  </si>
-  <si>
-    <t>5,6km</t>
-  </si>
-  <si>
-    <t>8,1km</t>
-  </si>
-  <si>
-    <t>11,4km</t>
-  </si>
-  <si>
     <t>6,4km</t>
   </si>
   <si>
-    <t>9,8km</t>
-  </si>
-  <si>
-    <t>6,5km</t>
-  </si>
-  <si>
     <t>3,2km</t>
   </si>
   <si>
     <t>4,8km</t>
   </si>
   <si>
-    <t>5km</t>
-  </si>
-  <si>
-    <t>10,9km</t>
-  </si>
-  <si>
     <t>2,6km</t>
   </si>
   <si>
@@ -236,21 +182,9 @@
     <t>21,2km</t>
   </si>
   <si>
-    <t>46,8km</t>
-  </si>
-  <si>
-    <t>50,4km</t>
-  </si>
-  <si>
     <t>49,6km</t>
   </si>
   <si>
-    <t>48,4km</t>
-  </si>
-  <si>
-    <t>45,6km</t>
-  </si>
-  <si>
     <t>45,2km</t>
   </si>
   <si>
@@ -269,31 +203,13 @@
     <t>32km</t>
   </si>
   <si>
-    <t>30km</t>
-  </si>
-  <si>
     <t>30,8km</t>
   </si>
   <si>
-    <t>26,4km</t>
-  </si>
-  <si>
-    <t>28,4km</t>
-  </si>
-  <si>
-    <t>33,2km</t>
-  </si>
-  <si>
     <t>39,2km</t>
   </si>
   <si>
-    <t>37,2km</t>
-  </si>
-  <si>
     <t>26km</t>
-  </si>
-  <si>
-    <t>31,6km</t>
   </si>
   <si>
     <t>13,6km</t>
@@ -828,7 +744,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,40 +813,40 @@
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -938,40 +854,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>44</v>
@@ -982,43 +898,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1026,43 +942,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1070,43 +986,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1114,43 +1030,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1158,43 +1074,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1202,43 +1118,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1246,43 +1162,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1290,43 +1206,43 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="M11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1334,34 +1250,34 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="J12" s="5" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>10</v>
@@ -1374,34 +1290,34 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
@@ -1414,34 +1330,34 @@
         <v>3</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
